--- a/new/bidirectionExcel.xlsx
+++ b/new/bidirectionExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghks2\Bems\Bems_modbus_poll\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F72F57-0D19-4322-B7F6-A0F8CFC127B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA85A10-4DF6-49B3-8356-8C5490616F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C65C2FAC-D3E7-48A5-976E-D84AF433208A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C65C2FAC-D3E7-48A5-976E-D84AF433208A}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ex)int,float,char</t>
+          <t>ex)int,char</t>
         </r>
       </text>
     </comment>
@@ -444,7 +444,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>DB_Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -588,6 +588,10 @@
   </si>
   <si>
     <t>ㅁ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1024,14 +1028,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7780DB32-850D-4D7F-9E3E-1371178620CB}">
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.9140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.08203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.08203125" style="1" customWidth="1"/>
@@ -1176,13 +1180,14 @@
         <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1190,7 +1195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DB6490-BA61-4757-9177-21D264AA5706}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/new/bidirectionExcel.xlsx
+++ b/new/bidirectionExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghks2\Bems\Bems_modbus_poll\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA85A10-4DF6-49B3-8356-8C5490616F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8CA0F4-0F05-4D91-8149-4C775FC73D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C65C2FAC-D3E7-48A5-976E-D84AF433208A}"/>
   </bookViews>
@@ -444,7 +444,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>DB_Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -474,10 +474,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>test1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>objectname</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -527,71 +523,98 @@
     <t>DB_LogType</t>
   </si>
   <si>
-    <t>S_DB_Id</t>
+    <t>S_Objectname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터를 가져올 localDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터를 보낼 타 DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t1.a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t1.b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t1.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅁ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tn_data_prmt_min</t>
+  </si>
+  <si>
+    <t>time추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨트롤값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨트롤타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_DB_Id(M)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>R_DB_Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_Objectname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R_Objectname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터를 가져올 localDB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터를 보낼 타 DB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Details</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t1.a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t1.b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t1.c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅁ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
+    <t>S_DB_Id(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_Objectname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a사 DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b사 DB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1026,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7780DB32-850D-4D7F-9E3E-1371178620CB}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1042,71 +1065,83 @@
     <col min="6" max="6" width="12.4140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.9140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.4140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.4140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="7.75" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8.25" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.25" style="2" customWidth="1"/>
-    <col min="18" max="19" width="8.6640625" style="2"/>
-    <col min="20" max="20" width="14.33203125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="17.83203125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="16" style="2" customWidth="1"/>
+    <col min="13" max="15" width="13.4140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7.75" style="2" customWidth="1"/>
+    <col min="18" max="18" width="8.25" style="2" customWidth="1"/>
+    <col min="19" max="19" width="9.25" style="2" customWidth="1"/>
+    <col min="20" max="21" width="8.6640625" style="2"/>
+    <col min="22" max="22" width="14.33203125" style="2" customWidth="1"/>
     <col min="23" max="23" width="17.83203125" style="2" customWidth="1"/>
     <col min="24" max="24" width="16" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="8.6640625" style="1"/>
+    <col min="25" max="25" width="17.83203125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="16" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>22</v>
+      <c r="N1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1133,21 +1168,21 @@
         <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -1168,19 +1203,35 @@
         <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1193,15 +1244,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DB6490-BA61-4757-9177-21D264AA5706}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.9140625" customWidth="1"/>
+    <col min="2" max="2" width="12.4140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
@@ -1209,19 +1262,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -1235,10 +1288,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F2" s="6"/>
     </row>
@@ -1253,10 +1306,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -1270,10 +1323,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1287,10 +1340,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -1304,10 +1357,24 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/new/bidirectionExcel.xlsx
+++ b/new/bidirectionExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghks2\Bems\Bems_modbus_poll\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8CA0F4-0F05-4D91-8149-4C775FC73D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3B1BDD-1189-4368-A301-08114844E590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C65C2FAC-D3E7-48A5-976E-D84AF433208A}"/>
   </bookViews>
@@ -283,6 +283,162 @@
     <author>김재환</author>
   </authors>
   <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{51CC075E-3412-496E-B9FC-D8912AE9C149}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Master DB:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>꺼낼</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터베이스의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A56FA862-A982-4E05-8DE0-DD345573E5C9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Slave DB:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>쓸</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> slave </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터베이스</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ID</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{5EEA3BBC-40BB-4C40-BD0F-B41F16C477F0}">
       <text>
         <r>
@@ -293,7 +449,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Send_Objectname:
+          <t xml:space="preserve">Master_Objectname:
 </t>
         </r>
         <r>
@@ -392,7 +548,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Receive_Objectname:
+          <t xml:space="preserve">Slave_Objectname:
 </t>
         </r>
         <r>
@@ -444,7 +600,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>DB_Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -575,34 +731,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tn_data_prmt_min</t>
-  </si>
-  <si>
-    <t>time추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨트롤값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨트롤타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_DB_Id(M)</t>
+    <t>DB_TimeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB_TimeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB_ControlName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB_ControlType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_DB_Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>S_DB_Id(S)</t>
+    <t>S_DB_Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -610,11 +759,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a사 DB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b사 DB</t>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1049,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7780DB32-850D-4D7F-9E3E-1371178620CB}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1069,9 +1218,11 @@
     <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.4140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" style="1" customWidth="1"/>
-    <col min="13" max="15" width="13.4140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.75" style="2" customWidth="1"/>
-    <col min="17" max="17" width="7.75" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.4140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.08203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.9140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.25" style="2" customWidth="1"/>
     <col min="18" max="18" width="8.25" style="2" customWidth="1"/>
     <col min="19" max="19" width="9.25" style="2" customWidth="1"/>
     <col min="20" max="21" width="8.6640625" style="2"/>
@@ -1124,16 +1275,16 @@
         <v>21</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
@@ -1203,7 +1354,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>7</v>
@@ -1216,22 +1367,6 @@
       </c>
       <c r="M3" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1244,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DB6490-BA61-4757-9177-21D264AA5706}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1265,13 +1400,13 @@
         <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>22</v>
@@ -1306,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
@@ -1361,20 +1496,6 @@
       </c>
       <c r="E6" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/new/bidirectionExcel.xlsx
+++ b/new/bidirectionExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghks2\Bems\Bems_modbus_poll\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3B1BDD-1189-4368-A301-08114844E590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B7D54F-5E4C-4198-ABBE-9F06EEFF9669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C65C2FAC-D3E7-48A5-976E-D84AF433208A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C65C2FAC-D3E7-48A5-976E-D84AF433208A}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -273,6 +273,157 @@
         </r>
       </text>
     </comment>
+    <comment ref="O1" authorId="1" shapeId="0" xr:uid="{6A82C9BC-AF9E-448A-8FA9-40A18A9B249D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>컨트롤</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">데이터형
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ex) int, float, char</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="1" shapeId="0" xr:uid="{1365BABC-B52F-4265-9986-3296266FDDD6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로그</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>생성시간명</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="1" shapeId="0" xr:uid="{29901B30-4443-4E9E-A6F5-B707887331C8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타임의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">데이터형
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ex) datetime</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -600,7 +751,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>DB_Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -699,14 +850,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t1.a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -759,11 +902,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrlvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2-a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2-b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2-c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -822,18 +989,12 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -872,17 +1033,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1198,10 +1359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7780DB32-850D-4D7F-9E3E-1371178620CB}">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1234,57 +1395,57 @@
     <col min="27" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="N1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="O1" s="6" t="s">
         <v>36</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
@@ -1354,7 +1515,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>7</v>
@@ -1366,7 +1527,66 @@
         <v>8</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3306</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>123123</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1381,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DB6490-BA61-4757-9177-21D264AA5706}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1399,21 +1619,21 @@
       <c r="A1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
       <c r="B2">
@@ -1423,28 +1643,28 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -1452,16 +1672,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1469,35 +1689,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-    </row>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
